--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2281125.477763403</v>
+        <v>-2284057.986732719</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>262.8951264259744</v>
+        <v>324.4950401414291</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>77.1591915718724</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>55.90301252244944</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>296.4456281581539</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>146.6736795877834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>128.6652719985049</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>49.52297001931485</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>260.4924670629835</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>133.9963273159767</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>67.48148437503453</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>405.339001364369</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>408.3062316354152</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>175.4352115491017</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>40.65078087822787</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440903</v>
@@ -1582,7 +1582,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.8000472740347</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>27.02919805176109</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>2.607010073152018</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.0347892581641</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,10 +2476,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C25" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E25" t="n">
         <v>122.1493151545295</v>
@@ -2488,13 +2488,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H25" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2539,7 +2539,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X25" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y25" t="n">
         <v>194.3000058600551</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
@@ -2965,7 +2965,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
         <v>56.98118882652579</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3481,16 +3481,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.9054987607761</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036445</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1573.11042906179</v>
+        <v>1983.284746385519</v>
       </c>
       <c r="X2" t="n">
-        <v>1199.64467080071</v>
+        <v>1609.81898812444</v>
       </c>
       <c r="Y2" t="n">
-        <v>809.505338824898</v>
+        <v>1219.679656148628</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.8815591656901</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>131.8815591656901</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>131.8815591656901</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>131.8815591656901</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>131.8815591656901</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>352.6741383092202</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="W4" t="n">
-        <v>352.6741383092202</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="X4" t="n">
-        <v>352.6741383092202</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y4" t="n">
-        <v>131.8815591656901</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2397.709062575643</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2397.709062575643</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230298</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1394.624369323446</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.8207968750362</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C7" t="n">
-        <v>500.8207968750362</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D7" t="n">
-        <v>500.8207968750362</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E7" t="n">
-        <v>352.9077032926431</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F7" t="n">
-        <v>352.9077032926431</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G7" t="n">
-        <v>183.9079030309755</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>500.8207968750362</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X7" t="n">
-        <v>500.8207968750362</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.8207968750362</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1448.013466588443</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C8" t="n">
-        <v>1448.013466588443</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.013466588443</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.225213990198</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628376</v>
+        <v>2111.958421263255</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628376</v>
+        <v>2111.958421263255</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.752638628376</v>
+        <v>2111.958421263255</v>
       </c>
       <c r="X8" t="n">
-        <v>2224.752638628376</v>
+        <v>2111.958421263255</v>
       </c>
       <c r="Y8" t="n">
-        <v>1834.613306652564</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,19 +4887,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598701</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>659.9658686760965</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036444</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036444</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1203.660470504205</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2271357927214</v>
+        <v>792.6745657145977</v>
       </c>
       <c r="G11" t="n">
         <v>380.2440287091278</v>
@@ -5042,7 +5042,7 @@
         <v>373.3125385470848</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9429223347665</v>
+        <v>892.189873607444</v>
       </c>
       <c r="L11" t="n">
         <v>1511.709654113219</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>94.85569562249445</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>94.85569562249445</v>
+        <v>241.4646447998178</v>
       </c>
       <c r="K12" t="n">
-        <v>425.3644381858532</v>
+        <v>571.9733873631765</v>
       </c>
       <c r="L12" t="n">
-        <v>916.0967710296045</v>
+        <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>916.0967710296045</v>
+        <v>1654.724074459055</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.192734428941</v>
+        <v>1654.724074459055</v>
       </c>
       <c r="O12" t="n">
-        <v>2085.069209429135</v>
+        <v>1903.635877180809</v>
       </c>
       <c r="P12" t="n">
-        <v>2504.652727855211</v>
+        <v>2323.219395606885</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.780669592131</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.5814239664454</v>
+        <v>676.7124946742043</v>
       </c>
       <c r="C13" t="n">
-        <v>788.5814239664454</v>
+        <v>676.7124946742043</v>
       </c>
       <c r="D13" t="n">
-        <v>638.4647845541097</v>
+        <v>526.5958552618686</v>
       </c>
       <c r="E13" t="n">
-        <v>490.5516909717165</v>
+        <v>526.5958552618686</v>
       </c>
       <c r="F13" t="n">
-        <v>343.6617434738062</v>
+        <v>485.5344604353758</v>
       </c>
       <c r="G13" t="n">
-        <v>176.447548648385</v>
+        <v>318.3202656099546</v>
       </c>
       <c r="H13" t="n">
         <v>176.447548648385</v>
@@ -5230,19 +5230,19 @@
         <v>1958.672496643873</v>
       </c>
       <c r="U13" t="n">
-        <v>1958.672496643873</v>
+        <v>1669.596282958599</v>
       </c>
       <c r="V13" t="n">
-        <v>1703.988008437986</v>
+        <v>1414.911794752712</v>
       </c>
       <c r="W13" t="n">
-        <v>1414.570838401025</v>
+        <v>1125.494624715752</v>
       </c>
       <c r="X13" t="n">
-        <v>1186.581287503008</v>
+        <v>897.5050738177345</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.7887083594775</v>
+        <v>676.7124946742043</v>
       </c>
     </row>
     <row r="14">
@@ -5273,7 +5273,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,19 +5413,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5504,19 +5504,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,22 +5650,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5747,22 +5747,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5835,22 +5835,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E25" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F25" t="n">
         <v>411.2214559580111</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
         <v>898.2659412311323</v>
@@ -6169,28 +6169,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T25" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6379,10 +6379,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K28" t="n">
         <v>483.8255460380728</v>
@@ -6394,7 +6394,7 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
         <v>2179.340199382518</v>
@@ -6406,25 +6406,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6601,16 +6601,16 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069454</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
         <v>1896.176478190825</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6871,37 +6871,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6917,43 +6917,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7014,16 +7014,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
         <v>1577.52840832642</v>
@@ -7084,43 +7084,43 @@
         <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384024</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7348,25 +7348,25 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2978.493192213311</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>2834.08695624706</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>2708.500263796381</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>2585.117117175644</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>2462.75711663939</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>2320.090964315926</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>2202.90908011978</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>2145.35232372935</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2249.630143176793</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>2535.361206719451</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>2949.801601912511</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>3395.853105660665</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>3837.304778337792</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>4230.875860063897</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>4547.593116654574</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>4648.317395612652</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>4489.992508229213</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>4294.92099021381</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>4030.375710519664</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>3800.221169275434</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>3535.333946200129</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>3331.874342263768</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>3135.611710081894</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,19 +7819,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050809</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>49.74439522492668</v>
       </c>
       <c r="L11" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,10 +22553,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>172.2046728460169</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -22565,7 +22565,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,16 +22598,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>86.34584229143866</v>
+        <v>24.7459285759839</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,10 +22705,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,16 +22717,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>90.15061068717851</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>105.7983120568568</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.537044377342397</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.396768632835574</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>104.7702671447034</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>24.63391537253447</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>119.4047645948081</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>146.0084629450603</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-5.562217481057792e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31795.45121791693</v>
+        <v>31795.45121791694</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>40328.03141930613</v>
+        <v>40328.03141930614</v>
       </c>
       <c r="F2" t="n">
         <v>40357.32998450031</v>
       </c>
       <c r="G2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="H2" t="n">
         <v>40357.32998450031</v>
@@ -26335,25 +26335,25 @@
         <v>41052.08849321419</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321421</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321418</v>
       </c>
       <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="O2" t="n">
+        <v>41052.08849321421</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.0884932142</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26390,7 +26390,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95396.83018339488</v>
+        <v>95396.83018339489</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,13 +26424,13 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718171</v>
+        <v>5759.93888671817</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670445</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670469</v>
+        <v>5067.592601670461</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670437</v>
@@ -26439,22 +26439,22 @@
         <v>13058.4518647639</v>
       </c>
       <c r="J4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.45186476389</v>
       </c>
       <c r="K4" t="n">
         <v>13058.45186476391</v>
       </c>
       <c r="L4" t="n">
+        <v>13058.45186476391</v>
+      </c>
+      <c r="M4" t="n">
         <v>13058.45186476393</v>
       </c>
-      <c r="M4" t="n">
-        <v>13058.45186476392</v>
-      </c>
       <c r="N4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
         <v>13058.45186476391</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-736428.3362434319</v>
+        <v>-736891.1681071968</v>
       </c>
       <c r="C6" t="n">
         <v>-242871.4954979268</v>
@@ -26528,40 +26528,40 @@
         <v>-242871.4954979268</v>
       </c>
       <c r="E6" t="n">
-        <v>-1002729.275764485</v>
+        <v>-1002765.478618181</v>
       </c>
       <c r="F6" t="n">
-        <v>-73685.43005602813</v>
+        <v>-73720.16798146383</v>
       </c>
       <c r="G6" t="n">
-        <v>-65832.79244107727</v>
+        <v>-65867.53036651298</v>
       </c>
       <c r="H6" t="n">
-        <v>-65832.79244107724</v>
+        <v>-65867.53036651293</v>
       </c>
       <c r="I6" t="n">
         <v>-94598.19721909687</v>
       </c>
       <c r="J6" t="n">
-        <v>-251593.6984180581</v>
+        <v>-251593.698418058</v>
       </c>
       <c r="K6" t="n">
-        <v>-75170.47922546511</v>
+        <v>-75170.47922546515</v>
       </c>
       <c r="L6" t="n">
         <v>-75170.47922546513</v>
       </c>
       <c r="M6" t="n">
-        <v>-199378.9899335237</v>
+        <v>-199378.9899335236</v>
       </c>
       <c r="N6" t="n">
-        <v>-94598.19721909685</v>
+        <v>-94598.19721909687</v>
       </c>
       <c r="O6" t="n">
-        <v>-75170.47922546511</v>
+        <v>-75170.4792254651</v>
       </c>
       <c r="P6" t="n">
-        <v>-75170.47922546511</v>
+        <v>-75170.47922546515</v>
       </c>
     </row>
   </sheetData>
@@ -26704,10 +26704,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203973</v>
@@ -26716,7 +26716,7 @@
         <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>209.7256972262449</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>90.43631874452176</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>31.30663031198105</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>239.5642590682702</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.50561684329023</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>176.1866853697223</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>146.3835786787279</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>117.2278401923126</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,10 +28059,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>56.01837628787177</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>157.5536210830497</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="38">
@@ -31835,10 +31835,10 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
@@ -31847,19 +31847,19 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>394.0223077997508</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.6059576586685</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>508.8976500257891</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>336.3457189021236</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,13 +32555,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>245.8118639189582</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>407.217739120397</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N27" t="n">
-        <v>320.9147064709964</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>382.686909664426</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33281,7 +33281,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33409,37 +33409,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33448,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>638.0665277849416</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33524,10 +33524,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33734,19 +33734,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>669.5976799347666</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>558.375963895806</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>360.3952288121461</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34951,7 +34951,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35191,7 +35191,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898681</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730075</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35410,10 +35410,10 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>524.1185202629891</v>
       </c>
       <c r="L11" t="n">
-        <v>675.5219512913658</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
         <v>728.287436302058</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
@@ -35495,19 +35495,19 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>251.4260633553063</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
-        <v>49.62418357264702</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>366.7636161037707</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>205.0040068187903</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>103.6778299969399</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36443,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>265.0837051983787</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
         <v>397.5465471980852</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N27" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>244.1325298845518</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36929,7 +36929,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>506.7248157016083</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>527.4636460127483</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37476,7 +37476,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>416.2419299737876</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5537898377871</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
